--- a/02_PHP&MySQL/02_db_design/Slides/db_design.xlsx
+++ b/02_PHP&MySQL/02_db_design/Slides/db_design.xlsx
@@ -58,8 +58,32 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Автор</author>
+  </authors>
+  <commentList>
+    <comment ref="A25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">emp_zip е с уникални стойности и е PK
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -130,21 +154,6 @@
     <t>brand</t>
   </si>
   <si>
-    <r>
-      <t>Example</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Suppose a company wants to store the complete address of each employee, they create a table named employee_details that looks like this:</t>
-    </r>
-  </si>
-  <si>
     <t>emp_id</t>
   </si>
   <si>
@@ -217,72 +226,6 @@
     <t>Ratan</t>
   </si>
   <si>
-    <r>
-      <t>Super keys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: {emp_id}, {emp_id, emp_name}, {emp_id, emp_name, emp_zip}…so on</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Candidate Keys</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: {emp_id}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Non-prime attributes</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: all attributes except emp_id are non-prime as they are not part of any candidate keys.</t>
-    </r>
-  </si>
-  <si>
-    <t>Here, emp_state, emp_city &amp; emp_district dependent on emp_zip. And, emp_zip is dependent on emp_id that makes non-prime attributes (emp_state, emp_city &amp; emp_district) transitively dependent on super key (emp_id). This violates the rule of 3NF.</t>
-  </si>
-  <si>
-    <t>To make this table complies with 3NF we have to break the table into two tables to remove the transitive dependency:</t>
-  </si>
-  <si>
-    <t>employee table:</t>
-  </si>
-  <si>
-    <t>employee_zip table:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">уникална стойност </t>
-  </si>
-  <si>
-    <t>пример за такава зависимост - модел телефон - съответните карактерстики на телефона - дисплей, процесор, тегло и т.</t>
-  </si>
-  <si>
-    <t>дайте друг пример</t>
-  </si>
-  <si>
     <t>ПЪРВА НОРМАЛНА ФОРМА НА БАЗАТА ДАННИ</t>
   </si>
   <si>
@@ -425,6 +368,34 @@
   </si>
   <si>
     <t>ограничения</t>
+  </si>
+  <si>
+    <t>ТРЕТА НОРМАЛНА ФОРМА НА БАЗАТА ДАННИ</t>
+  </si>
+  <si>
+    <t>Компания желае да запази пълния адрес на всички свои служители. За целта създават таблица employee_details, която изглежда така.</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_DETAILS table</t>
+  </si>
+  <si>
+    <t>Комбинацията от записи в колоните emp_state, emp_city &amp; emp_district зависят от  emp_zip</t>
+  </si>
+  <si>
+    <t>Третата нормална форма изисква не само всяка колона без ключ да зависи от целия първичен ключ, но и колоните без ключ да са независими една от друга.
+Казано по друг начин, всяка колона без ключ трябва да зависи единствено от първичния ключ.</t>
+  </si>
+  <si>
+    <t>За да нормализираме базата данни, трябва да разбием таблицата на две.</t>
+  </si>
+  <si>
+    <t>emp_zip/FK/</t>
+  </si>
+  <si>
+    <t>EMPLOYEEs table:</t>
+  </si>
+  <si>
+    <t>EMPLOYEEs_ADDRESS table:</t>
   </si>
 </sst>
 </file>
@@ -433,14 +404,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -482,8 +445,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -568,8 +538,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -661,122 +643,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,163 +1153,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.88671875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="5.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" s="20"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <v>1</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <v>32</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>45</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <v>36</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:5" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="A11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>32</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>32</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="8">
+      <c r="A17" s="6">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>45</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>4</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>36</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1312,305 +1329,305 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="5"/>
+    <col min="1" max="1" width="18.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="38"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
+        <v>1</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
+        <v>2</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <v>3</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F18" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F19" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="41"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <v>1</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-    </row>
-    <row r="2" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:13" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <v>2</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <v>3</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <v>4</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
+      <c r="B29" s="7">
+        <v>1</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
+      <c r="B30" s="7">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
+      <c r="B31" s="7">
+        <v>2</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="40"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>2</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
+      <c r="B32" s="7">
         <v>3</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="43"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="9">
-        <v>1</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="9">
-        <v>2</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="9">
-        <v>3</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="9">
+      <c r="C32" s="7">
         <v>4</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="28" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="9">
-        <v>1</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-      <c r="C29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="9">
-        <v>2</v>
-      </c>
-      <c r="B30" s="9">
-        <v>1</v>
-      </c>
-      <c r="C30" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="9">
-        <v>3</v>
-      </c>
-      <c r="B31" s="9">
-        <v>2</v>
-      </c>
-      <c r="C31" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="9">
-        <v>4</v>
-      </c>
-      <c r="B32" s="9">
-        <v>3</v>
-      </c>
-      <c r="C32" s="9">
-        <v>4</v>
-      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1628,341 +1645,385 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A5" s="45" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D5" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F5" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A6" s="46">
+        <v>1001</v>
+      </c>
+      <c r="B6" s="46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C6" s="46">
+        <v>282005</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A7" s="46">
+        <v>1002</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="46">
+        <v>222008</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.35">
+      <c r="A8" s="46">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="46">
+        <v>282007</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="46">
+        <v>1101</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="46">
+        <v>292008</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="46">
+        <v>1201</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="46">
+        <v>222999</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="22.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="88.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+    </row>
+    <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A18" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="46">
         <v>1001</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B19" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="46">
+        <v>282005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="46">
+        <v>1002</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="46">
+        <v>222008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="46">
+        <v>1006</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="46">
+        <v>282007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="46">
+        <v>1101</v>
+      </c>
+      <c r="B22" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="46">
+        <v>292008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="46">
+        <v>1201</v>
+      </c>
+      <c r="B23" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="46">
+        <v>222999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A27" s="46">
+        <v>282005</v>
+      </c>
+      <c r="B27" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="2">
-        <v>282005</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C27" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D27" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="46">
+        <v>222008</v>
+      </c>
+      <c r="B28" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2">
-        <v>222008</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D28" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.35">
+      <c r="A29" s="46">
+        <v>282007</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="2">
-        <v>282007</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="46">
+        <v>292008</v>
+      </c>
+      <c r="B30" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
-        <v>292008</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="C30" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="D30" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1201</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="46">
+        <v>222999</v>
+      </c>
+      <c r="B31" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2">
-        <v>222999</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="C31" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="D31" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1001</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="2">
-        <v>282005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="2">
-        <v>222008</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>1006</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="2">
-        <v>282007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1101</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="2">
-        <v>292008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>1201</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="2">
-        <v>222999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="J29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>282005</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>222008</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>282007</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>292008</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>222999</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A17:C17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1976,110 +2037,110 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" style="29" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64" style="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.88671875" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="29"/>
+    <col min="1" max="1" width="14.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" style="27" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>105</v>
+      <c r="A1" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="29"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="31"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D5" s="31"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>100</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
+      <c r="C8" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="31"/>
+      <c r="D8" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/02_PHP&MySQL/02_db_design/Slides/db_design.xlsx
+++ b/02_PHP&MySQL/02_db_design/Slides/db_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="първа нормална форма" sheetId="1" r:id="rId1"/>
@@ -735,6 +735,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -765,35 +780,20 @@
     <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,6 +810,55 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>592781</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Картина 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745480" y="426720"/>
+          <a:ext cx="5256221" cy="2049780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1147,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -1162,12 +1211,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
@@ -1236,12 +1285,12 @@
     </row>
     <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="11" spans="1:5" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
@@ -1320,7 +1369,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1341,15 +1391,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
@@ -1361,11 +1411,11 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -1433,10 +1483,10 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="23" t="s">
@@ -1467,16 +1517,16 @@
       <c r="B16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
@@ -1500,10 +1550,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="46"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="25" t="s">
@@ -1512,16 +1562,16 @@
       <c r="B21" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
@@ -1565,11 +1615,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
@@ -1648,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1664,15 +1714,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
@@ -1684,144 +1734,144 @@
       <c r="G2" s="19"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="44"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="33" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A6" s="46">
+      <c r="A6" s="34">
         <v>1001</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="34">
         <v>282005</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A7" s="46">
+      <c r="A7" s="34">
         <v>1002</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="34">
         <v>222008</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="46" t="s">
+      <c r="F7" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" x14ac:dyDescent="0.35">
-      <c r="A8" s="46">
+      <c r="A8" s="34">
         <v>1006</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="34">
         <v>282007</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="46" t="s">
+      <c r="E8" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="46" t="s">
+      <c r="F8" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="46">
+      <c r="A9" s="34">
         <v>1101</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="46">
+      <c r="C9" s="34">
         <v>292008</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="46">
+      <c r="A10" s="34">
         <v>1201</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="34">
         <v>222999</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="46" t="s">
+      <c r="F10" s="34" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1831,16 +1881,16 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="88.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -1848,167 +1898,167 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
     </row>
     <row r="18" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="51" t="s">
+      <c r="C18" s="36" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="46">
+      <c r="A19" s="34">
         <v>1001</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="46">
+      <c r="C19" s="34">
         <v>282005</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="46">
+      <c r="A20" s="34">
         <v>1002</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="46">
+      <c r="C20" s="34">
         <v>222008</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="46">
+      <c r="A21" s="34">
         <v>1006</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="34">
         <v>282007</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="46">
+      <c r="A22" s="34">
         <v>1101</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="46">
+      <c r="C22" s="34">
         <v>292008</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="46">
+      <c r="A23" s="34">
         <v>1201</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="46">
+      <c r="C23" s="34">
         <v>222999</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="50"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A27" s="46">
+      <c r="A27" s="34">
         <v>282005</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="46" t="s">
+      <c r="C27" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="46" t="s">
+      <c r="D27" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="46">
+      <c r="A28" s="34">
         <v>222008</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="46" t="s">
+      <c r="D28" s="34" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="36" x14ac:dyDescent="0.35">
-      <c r="A29" s="46">
+      <c r="A29" s="34">
         <v>282007</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="46" t="s">
+      <c r="C29" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="34" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="46">
+      <c r="A30" s="34">
         <v>292008</v>
       </c>
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="46" t="s">
+      <c r="C30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="46" t="s">
+      <c r="D30" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="46">
+      <c r="A31" s="34">
         <v>222999</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="46" t="s">
+      <c r="C31" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="46" t="s">
+      <c r="D31" s="34" t="s">
         <v>46</v>
       </c>
     </row>

--- a/02_PHP&MySQL/02_db_design/Slides/db_design.xlsx
+++ b/02_PHP&MySQL/02_db_design/Slides/db_design.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="първа нормална форма" sheetId="1" r:id="rId1"/>
     <sheet name="втора нормална форма" sheetId="2" r:id="rId2"/>
     <sheet name="трета нормална форма" sheetId="4" r:id="rId3"/>
     <sheet name="типове данни в проекта за бд" sheetId="3" r:id="rId4"/>
-    <sheet name="задачи" sheetId="5" r:id="rId5"/>
+    <sheet name="задача1" sheetId="5" r:id="rId5"/>
+    <sheet name="задача3" sheetId="6" r:id="rId6"/>
+    <sheet name="задача 4" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -83,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="201">
   <si>
     <t>id</t>
   </si>
@@ -396,6 +398,297 @@
   </si>
   <si>
     <t>EMPLOYEEs_ADDRESS table:</t>
+  </si>
+  <si>
+    <t>employees_id</t>
+  </si>
+  <si>
+    <t>employees_name</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Employees table</t>
+  </si>
+  <si>
+    <t>Departments table</t>
+  </si>
+  <si>
+    <t>department_id</t>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>departments_employees</t>
+  </si>
+  <si>
+    <t>employee_id</t>
+  </si>
+  <si>
+    <t>1 зад</t>
+  </si>
+  <si>
+    <t>recipes</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>quantities</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>unit_id</t>
+  </si>
+  <si>
+    <t>unit_name</t>
+  </si>
+  <si>
+    <t>литър</t>
+  </si>
+  <si>
+    <t>кг</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>копър</t>
+  </si>
+  <si>
+    <t>recipe_id</t>
+  </si>
+  <si>
+    <t>recipe_name</t>
+  </si>
+  <si>
+    <t>таратор</t>
+  </si>
+  <si>
+    <t>recipes_products_quantities_units</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>яйца по панагюрски</t>
+  </si>
+  <si>
+    <t>кис. мляко</t>
+  </si>
+  <si>
+    <t>гр</t>
+  </si>
+  <si>
+    <t>краставица</t>
+  </si>
+  <si>
+    <t>бр</t>
+  </si>
+  <si>
+    <t>връзка</t>
+  </si>
+  <si>
+    <t>чесън</t>
+  </si>
+  <si>
+    <t>скилидка</t>
+  </si>
+  <si>
+    <t>к. л.</t>
+  </si>
+  <si>
+    <t>с.л.</t>
+  </si>
+  <si>
+    <t>ч.л</t>
+  </si>
+  <si>
+    <t>щипка</t>
+  </si>
+  <si>
+    <t>unit_id/PK/</t>
+  </si>
+  <si>
+    <t>recipe_id/PK/</t>
+  </si>
+  <si>
+    <t>recipe_id/FK/</t>
+  </si>
+  <si>
+    <t>unit_id/FK/</t>
+  </si>
+  <si>
+    <t>Видео игра</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>Компания производител</t>
+  </si>
+  <si>
+    <t>Жанр</t>
+  </si>
+  <si>
+    <t>Адрес на компания</t>
+  </si>
+  <si>
+    <t>Брой служители</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>game_name</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>employee_number</t>
+  </si>
+  <si>
+    <t>adresses</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>genres</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>genres_games</t>
+  </si>
+  <si>
+    <t>companies_games</t>
+  </si>
+  <si>
+    <t>game_id/PK/</t>
+  </si>
+  <si>
+    <t>genres_id/PK/</t>
+  </si>
+  <si>
+    <t>company_id/PK/</t>
+  </si>
+  <si>
+    <t>address_id/PK/</t>
+  </si>
+  <si>
+    <t>genre_id/FK/</t>
+  </si>
+  <si>
+    <t>game_id/FK/</t>
+  </si>
+  <si>
+    <t>company_id/FK/</t>
+  </si>
+  <si>
+    <t>price?</t>
+  </si>
+  <si>
+    <t>companiy_id/FK/</t>
+  </si>
+  <si>
+    <t>Производител на автомобили</t>
+  </si>
+  <si>
+    <t>Цена на автомобил</t>
+  </si>
+  <si>
+    <t>Модел автомобил</t>
+  </si>
+  <si>
+    <t>Година на производство</t>
+  </si>
+  <si>
+    <t>Адрес на централен офис</t>
+  </si>
+  <si>
+    <t>Директор</t>
+  </si>
+  <si>
+    <t>Мощност</t>
+  </si>
+  <si>
+    <t>car_id</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>models</t>
+  </si>
+  <si>
+    <t>cars?</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>Manufacturers</t>
+  </si>
+  <si>
+    <t>manufactures_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>power_id</t>
+  </si>
+  <si>
+    <t>power_info</t>
+  </si>
+  <si>
+    <t>models_id</t>
+  </si>
+  <si>
+    <t>model_name</t>
+  </si>
+  <si>
+    <t>model_id</t>
+  </si>
+  <si>
+    <t>manufacturer_id</t>
+  </si>
+  <si>
+    <t>model_year_power</t>
+  </si>
+  <si>
+    <t>year_id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>ceo</t>
+  </si>
+  <si>
+    <t>number_of_employees</t>
+  </si>
+  <si>
+    <t>preparation</t>
   </si>
 </sst>
 </file>
@@ -453,7 +746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -547,6 +840,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -795,6 +1106,53 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -814,15 +1172,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198120</xdr:rowOff>
+      <xdr:colOff>2286000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>592781</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190768</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:rowOff>256771</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -845,7 +1203,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5745480" y="426720"/>
+          <a:off x="7604760" y="495300"/>
           <a:ext cx="5256221" cy="2049780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1194,10 +1552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="C20" zoomScale="165" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1206,11 +1564,13 @@
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="8.77734375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="40" t="s">
         <v>47</v>
       </c>
@@ -1218,15 +1578,15 @@
       <c r="C1" s="40"/>
       <c r="D1" s="40"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1601,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -1255,7 +1615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="9">
         <v>2</v>
       </c>
@@ -1269,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="9">
         <v>3</v>
       </c>
@@ -1283,8 +1643,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:5" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="1:8" ht="78.599999999999994" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>48</v>
       </c>
@@ -1292,7 +1652,7 @@
       <c r="C11" s="38"/>
       <c r="D11" s="39"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>0</v>
       </c>
@@ -1305,8 +1665,14 @@
       <c r="D14" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>1</v>
       </c>
@@ -1319,8 +1685,17 @@
       <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>2</v>
       </c>
@@ -1333,8 +1708,17 @@
       <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>3</v>
       </c>
@@ -1347,8 +1731,17 @@
       <c r="D17" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" s="3">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>4</v>
       </c>
@@ -1360,6 +1753,121 @@
       </c>
       <c r="D18" s="7" t="s">
         <v>10</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E23" s="3">
+        <v>2</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="52"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E30" s="3">
+        <v>2</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E31" s="3">
+        <v>3</v>
+      </c>
+      <c r="F31" s="3">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E32" s="3">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1378,8 +1886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView topLeftCell="A21" zoomScale="174" zoomScaleNormal="174" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2200,14 +2708,705 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" style="62" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="62" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="D9" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="57"/>
+      <c r="G9" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N10" s="63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="54">
+        <v>1</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="54">
+        <v>2</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="30">
+        <v>2</v>
+      </c>
+      <c r="E12" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" s="30">
+        <v>2</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="62">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="61">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="61">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="61">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="61">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J17">
+        <v>7</v>
+      </c>
+      <c r="K17" s="30">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="62">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="62">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="62">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="D22" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="58"/>
+      <c r="J22" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="60"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="J23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="J24" s="55" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" s="56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J26" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="J27" s="63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="J22:N22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="78"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="78"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="78"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="78"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="78"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="78"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="74" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="67" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="68"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="76" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="77"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21" s="77"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="77"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="77"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="69" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="73" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="64" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="64" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F18" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>